--- a/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Trimestral.xlsx
+++ b/13/2/2/2/FRP por tipo de activo 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Serie</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1533,6 +1536,32 @@
         <v>589</v>
       </c>
     </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>7331</v>
+      </c>
+      <c r="D48">
+        <v>2458</v>
+      </c>
+      <c r="E48">
+        <v>575</v>
+      </c>
+      <c r="F48">
+        <v>951</v>
+      </c>
+      <c r="G48">
+        <v>2320</v>
+      </c>
+      <c r="H48">
+        <v>441</v>
+      </c>
+      <c r="I48">
+        <v>587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
